--- a/SeleniumAutomation_Ascendum/src/main/java/com/qa/ascendum/resources/dataDrivenTest.xlsx
+++ b/SeleniumAutomation_Ascendum/src/main/java/com/qa/ascendum/resources/dataDrivenTest.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{387B99EA-1EA9-498D-948B-0CE0FD6E21EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD8E679-0DDD-408B-8A15-550D66EB4713}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchText" sheetId="1" r:id="rId1"/>
+    <sheet name="WriteToExcel" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>C</t>
   </si>
@@ -87,13 +87,20 @@
   </si>
   <si>
     <t>services</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Careers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,13 +413,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.77734375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -507,4 +514,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D40850A-7E0D-4406-A23E-C6BD58B1099D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="6">
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SeleniumAutomation_Ascendum/src/main/java/com/qa/ascendum/resources/dataDrivenTest.xlsx
+++ b/SeleniumAutomation_Ascendum/src/main/java/com/qa/ascendum/resources/dataDrivenTest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="24">
   <si>
     <t>C</t>
   </si>
@@ -419,7 +419,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.77734375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="17.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">

--- a/SeleniumAutomation_Ascendum/src/main/java/com/qa/ascendum/resources/dataDrivenTest.xlsx
+++ b/SeleniumAutomation_Ascendum/src/main/java/com/qa/ascendum/resources/dataDrivenTest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="24">
   <si>
     <t>C</t>
   </si>

--- a/SeleniumAutomation_Ascendum/src/main/java/com/qa/ascendum/resources/dataDrivenTest.xlsx
+++ b/SeleniumAutomation_Ascendum/src/main/java/com/qa/ascendum/resources/dataDrivenTest.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="24">
   <si>
     <t>C</t>
   </si>
